--- a/appendix/mean_difference_recall_macro_top4th.xlsx
+++ b/appendix/mean_difference_recall_macro_top4th.xlsx
@@ -488,35 +488,35 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings vs. classical-best-tfidf</t>
+          <t>classical-best-embed vs. classical-best-tfidf</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.036</v>
+        <v>0.04</v>
       </c>
       <c r="D2" t="n">
         <v>0.022</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.002</v>
+        <v>0.007</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
       <c r="G2" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.022</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.017</v>
-      </c>
       <c r="J2" t="n">
-        <v>0.016</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="3">
@@ -529,62 +529,62 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.036</v>
+        <v>0.043</v>
       </c>
       <c r="E3" t="n">
-        <v>0.034</v>
+        <v>0.042</v>
       </c>
       <c r="F3" t="n">
-        <v>0.027</v>
+        <v>0.024</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06</v>
+        <v>0.079</v>
       </c>
       <c r="H3" t="n">
-        <v>0.066</v>
+        <v>0.078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.039</v>
+        <v>0.045</v>
       </c>
       <c r="J3" t="n">
-        <v>0.047</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>BERT-base vs. classical-best-embeddings</t>
+          <t>BERT-base vs. classical-best-embed</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.024</v>
+        <v>0.03</v>
       </c>
       <c r="D4" t="n">
-        <v>0.014</v>
+        <v>0.021</v>
       </c>
       <c r="E4" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="F4" t="n">
-        <v>0.017</v>
+        <v>0.005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.038</v>
+        <v>0.046</v>
       </c>
       <c r="H4" t="n">
-        <v>0.057</v>
+        <v>0.052</v>
       </c>
       <c r="I4" t="n">
         <v>0.023</v>
       </c>
       <c r="J4" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="5">
@@ -594,28 +594,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.58</v>
+        <v>0.555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.027</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01</v>
+        <v>0.024</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="H5" t="n">
-        <v>0.028</v>
+        <v>0.023</v>
       </c>
       <c r="I5" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="J5" t="n">
         <v>0.025</v>
@@ -624,35 +624,35 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>BERT-base-nli vs. classical-best-embeddings</t>
+          <t>BERT-base-nli vs. classical-best-embed</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.58</v>
+        <v>0.555</v>
       </c>
       <c r="C6" t="n">
-        <v>0.033</v>
+        <v>0.004</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.013</v>
+        <v>0.005</v>
       </c>
       <c r="E6" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.006</v>
+        <v>-0.018</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007</v>
+        <v>-0.003</v>
       </c>
       <c r="H6" t="n">
-        <v>0.019</v>
+        <v>-0.003</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="J6" t="n">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.58</v>
+        <v>0.555</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008999999999999999</v>
+        <v>-0.026</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.027</v>
+        <v>-0.016</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.024</v>
+        <v>-0.018</v>
       </c>
       <c r="F7" t="n">
         <v>-0.023</v>
       </c>
       <c r="G7" t="n">
+        <v>-0.049</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.055</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.021</v>
+      </c>
+      <c r="J7" t="n">
         <v>-0.031</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.038</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.016</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-0.022</v>
       </c>
     </row>
   </sheetData>
